--- a/DOCUMENT/詳細設計書/機能設計書/機能設計書[見積更新].xlsx
+++ b/DOCUMENT/詳細設計書/機能設計書/機能設計書[見積更新].xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\husah\Dropbox\見積システム\paperwork_system\DOCUMENT\詳細設計書\機能設計書\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\husah\Dropbox\My PC (DESKTOP-T10UG08)\Desktop\debug#4\paperwork-system\DOCUMENT\詳細設計書\機能設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0101177D-0A2F-4F8A-A789-149F4FF39DD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8ECA056-5492-4D56-A437-A4C51E3B8863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="888" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="164">
   <si>
     <t>作成者</t>
   </si>
@@ -1404,6 +1404,39 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>・quotations_detailsテーブルのorderフィールドに、item_idフィールドの後半の設定値（item_idフィールド設定値：{1}_{2}　{2}部分で設定した値）で登録処理を行う</t>
+    <rPh sb="49" eb="51">
+      <t>コウハン</t>
+    </rPh>
+    <rPh sb="52" eb="55">
+      <t>セッテイチ</t>
+    </rPh>
+    <rPh sb="83" eb="85">
+      <t>ブブン</t>
+    </rPh>
+    <rPh sb="86" eb="88">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="90" eb="91">
+      <t>アタイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>8, フォームに対応した見積書詳細テーブルへ登録処理</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>見積書詳細テーブルorderフィールドの登録処理を追加</t>
+    <rPh sb="20" eb="22">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -1412,7 +1445,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <name val="明朝"/>
@@ -1469,6 +1502,12 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1664,7 +1703,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1798,17 +1837,20 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1822,19 +1864,25 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1879,14 +1927,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5440,56 +5488,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A1" s="53" t="s">
+      <c r="A1" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="53"/>
-      <c r="C1" s="53"/>
-      <c r="D1" s="54" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="54"/>
-      <c r="K1" s="54"/>
-      <c r="L1" s="54"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="54"/>
-      <c r="O1" s="54"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
       <c r="P1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="55" t="s">
+      <c r="Q1" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="55"/>
+      <c r="R1" s="47"/>
     </row>
     <row r="2" spans="1:18" ht="18.75" customHeight="1">
-      <c r="A2" s="53"/>
-      <c r="B2" s="53"/>
-      <c r="C2" s="53"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="54"/>
-      <c r="I2" s="54"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
       <c r="P2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="56">
+      <c r="Q2" s="48">
         <v>44291</v>
       </c>
-      <c r="R2" s="55"/>
+      <c r="R2" s="47"/>
     </row>
     <row r="3" spans="1:18" ht="22.5" customHeight="1">
       <c r="A3" s="8"/>
@@ -5515,433 +5563,441 @@
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57" t="s">
+      <c r="C4" s="49"/>
+      <c r="D4" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57" t="s">
+      <c r="E4" s="49"/>
+      <c r="F4" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57" t="s">
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="57"/>
-      <c r="K4" s="57"/>
-      <c r="L4" s="57"/>
-      <c r="M4" s="57"/>
-      <c r="N4" s="57"/>
-      <c r="O4" s="57"/>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="57"/>
-      <c r="R4" s="57"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="49"/>
+      <c r="O4" s="49"/>
+      <c r="P4" s="49"/>
+      <c r="Q4" s="49"/>
+      <c r="R4" s="49"/>
     </row>
     <row r="5" spans="1:18" ht="22.5" customHeight="1">
       <c r="A5" s="10">
         <v>1</v>
       </c>
-      <c r="B5" s="49">
+      <c r="B5" s="50">
         <v>44292</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50" t="s">
+      <c r="C5" s="50"/>
+      <c r="D5" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51" t="s">
+      <c r="E5" s="51"/>
+      <c r="F5" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="53"/>
+      <c r="J5" s="53"/>
+      <c r="K5" s="53"/>
+      <c r="L5" s="53"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="53"/>
+      <c r="P5" s="53"/>
+      <c r="Q5" s="53"/>
+      <c r="R5" s="53"/>
     </row>
     <row r="6" spans="1:18" ht="22.5" customHeight="1">
       <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="48"/>
-      <c r="J6" s="48"/>
-      <c r="K6" s="48"/>
-      <c r="L6" s="48"/>
-      <c r="M6" s="48"/>
-      <c r="N6" s="48"/>
-      <c r="O6" s="48"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
+      <c r="B6" s="76">
+        <v>44473</v>
+      </c>
+      <c r="C6" s="76"/>
+      <c r="D6" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="52"/>
+      <c r="F6" s="75" t="s">
+        <v>162</v>
+      </c>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="77" t="s">
+        <v>163</v>
+      </c>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="77"/>
+      <c r="N6" s="77"/>
+      <c r="O6" s="77"/>
+      <c r="P6" s="77"/>
+      <c r="Q6" s="77"/>
+      <c r="R6" s="77"/>
     </row>
     <row r="7" spans="1:18" ht="27" customHeight="1">
       <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
-      <c r="L7" s="48"/>
-      <c r="M7" s="48"/>
-      <c r="N7" s="48"/>
-      <c r="O7" s="48"/>
-      <c r="P7" s="48"/>
-      <c r="Q7" s="48"/>
-      <c r="R7" s="48"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
     </row>
     <row r="8" spans="1:18" ht="27" customHeight="1">
       <c r="A8" s="11">
         <v>4</v>
       </c>
-      <c r="B8" s="45"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="48"/>
-      <c r="J8" s="48"/>
-      <c r="K8" s="48"/>
-      <c r="L8" s="48"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-      <c r="O8" s="48"/>
-      <c r="P8" s="48"/>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="K8" s="57"/>
+      <c r="L8" s="57"/>
+      <c r="M8" s="57"/>
+      <c r="N8" s="57"/>
+      <c r="O8" s="57"/>
+      <c r="P8" s="57"/>
+      <c r="Q8" s="57"/>
+      <c r="R8" s="57"/>
     </row>
     <row r="9" spans="1:18" ht="27" customHeight="1">
       <c r="A9" s="11">
         <v>5</v>
       </c>
-      <c r="B9" s="45"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="48"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="48"/>
-      <c r="L9" s="48"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
     </row>
     <row r="10" spans="1:18" ht="27" customHeight="1">
       <c r="A10" s="11">
         <v>6</v>
       </c>
-      <c r="B10" s="45"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="48"/>
-      <c r="J10" s="48"/>
-      <c r="K10" s="48"/>
-      <c r="L10" s="48"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-      <c r="O10" s="48"/>
-      <c r="P10" s="48"/>
-      <c r="Q10" s="48"/>
-      <c r="R10" s="48"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="57"/>
+      <c r="L10" s="57"/>
+      <c r="M10" s="57"/>
+      <c r="N10" s="57"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="57"/>
+      <c r="R10" s="57"/>
     </row>
     <row r="11" spans="1:18" ht="27" customHeight="1">
       <c r="A11" s="11">
         <v>7</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="48"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="48"/>
-      <c r="L11" s="48"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-      <c r="O11" s="48"/>
-      <c r="P11" s="48"/>
-      <c r="Q11" s="48"/>
-      <c r="R11" s="48"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+      <c r="K11" s="57"/>
+      <c r="L11" s="57"/>
+      <c r="M11" s="57"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="57"/>
+      <c r="P11" s="57"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
     </row>
     <row r="12" spans="1:18" ht="27" customHeight="1">
       <c r="A12" s="11">
         <v>8</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="48"/>
-      <c r="K12" s="48"/>
-      <c r="L12" s="48"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-      <c r="O12" s="48"/>
-      <c r="P12" s="48"/>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="55"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+      <c r="K12" s="57"/>
+      <c r="L12" s="57"/>
+      <c r="M12" s="57"/>
+      <c r="N12" s="57"/>
+      <c r="O12" s="57"/>
+      <c r="P12" s="57"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
     </row>
     <row r="13" spans="1:18" ht="27" customHeight="1">
       <c r="A13" s="11">
         <v>9</v>
       </c>
-      <c r="B13" s="45"/>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="48"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="48"/>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+      <c r="K13" s="57"/>
+      <c r="L13" s="57"/>
+      <c r="M13" s="57"/>
+      <c r="N13" s="57"/>
+      <c r="O13" s="57"/>
+      <c r="P13" s="57"/>
+      <c r="Q13" s="57"/>
+      <c r="R13" s="57"/>
     </row>
     <row r="14" spans="1:18" ht="27" customHeight="1">
       <c r="A14" s="11">
         <v>10</v>
       </c>
-      <c r="B14" s="45"/>
-      <c r="C14" s="45"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="46"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="48"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="48"/>
-      <c r="P14" s="48"/>
-      <c r="Q14" s="48"/>
-      <c r="R14" s="48"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+      <c r="K14" s="57"/>
+      <c r="L14" s="57"/>
+      <c r="M14" s="57"/>
+      <c r="N14" s="57"/>
+      <c r="O14" s="57"/>
+      <c r="P14" s="57"/>
+      <c r="Q14" s="57"/>
+      <c r="R14" s="57"/>
     </row>
     <row r="15" spans="1:18" ht="27" customHeight="1">
       <c r="A15" s="11">
         <v>11</v>
       </c>
-      <c r="B15" s="45"/>
-      <c r="C15" s="45"/>
-      <c r="D15" s="46"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="48"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="48"/>
-      <c r="Q15" s="48"/>
-      <c r="R15" s="48"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+      <c r="K15" s="57"/>
+      <c r="L15" s="57"/>
+      <c r="M15" s="57"/>
+      <c r="N15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="57"/>
     </row>
     <row r="16" spans="1:18" ht="27" customHeight="1">
       <c r="A16" s="11">
         <v>12</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="46"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="48"/>
-      <c r="P16" s="48"/>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="57"/>
+      <c r="L16" s="57"/>
+      <c r="M16" s="57"/>
+      <c r="N16" s="57"/>
+      <c r="O16" s="57"/>
+      <c r="P16" s="57"/>
+      <c r="Q16" s="57"/>
+      <c r="R16" s="57"/>
     </row>
     <row r="17" spans="1:18" ht="27" customHeight="1">
       <c r="A17" s="11">
         <v>13</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="48"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="48"/>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+      <c r="K17" s="57"/>
+      <c r="L17" s="57"/>
+      <c r="M17" s="57"/>
+      <c r="N17" s="57"/>
+      <c r="O17" s="57"/>
+      <c r="P17" s="57"/>
+      <c r="Q17" s="57"/>
+      <c r="R17" s="57"/>
     </row>
     <row r="18" spans="1:18" ht="27" customHeight="1">
       <c r="A18" s="11">
         <v>14</v>
       </c>
-      <c r="B18" s="45"/>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="48"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="48"/>
-      <c r="P18" s="48"/>
-      <c r="Q18" s="48"/>
-      <c r="R18" s="48"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+      <c r="K18" s="57"/>
+      <c r="L18" s="57"/>
+      <c r="M18" s="57"/>
+      <c r="N18" s="57"/>
+      <c r="O18" s="57"/>
+      <c r="P18" s="57"/>
+      <c r="Q18" s="57"/>
+      <c r="R18" s="57"/>
     </row>
     <row r="19" spans="1:18" ht="27" customHeight="1">
       <c r="A19" s="11">
         <v>15</v>
       </c>
-      <c r="B19" s="45"/>
-      <c r="C19" s="45"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="48"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
-      <c r="P19" s="48"/>
-      <c r="Q19" s="48"/>
-      <c r="R19" s="48"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+      <c r="K19" s="57"/>
+      <c r="L19" s="57"/>
+      <c r="M19" s="57"/>
+      <c r="N19" s="57"/>
+      <c r="O19" s="57"/>
+      <c r="P19" s="57"/>
+      <c r="Q19" s="57"/>
+      <c r="R19" s="57"/>
     </row>
     <row r="20" spans="1:18" ht="27" customHeight="1">
       <c r="A20" s="11">
         <v>16</v>
       </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="48"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
-      <c r="P20" s="48"/>
-      <c r="Q20" s="48"/>
-      <c r="R20" s="48"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+      <c r="K20" s="57"/>
+      <c r="L20" s="57"/>
+      <c r="M20" s="57"/>
+      <c r="N20" s="57"/>
+      <c r="O20" s="57"/>
+      <c r="P20" s="57"/>
+      <c r="Q20" s="57"/>
+      <c r="R20" s="57"/>
     </row>
     <row r="21" spans="1:18" ht="27" customHeight="1">
       <c r="A21" s="11">
         <v>17</v>
       </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="48"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
-      <c r="P21" s="48"/>
-      <c r="Q21" s="48"/>
-      <c r="R21" s="48"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+      <c r="K21" s="57"/>
+      <c r="L21" s="57"/>
+      <c r="M21" s="57"/>
+      <c r="N21" s="57"/>
+      <c r="O21" s="57"/>
+      <c r="P21" s="57"/>
+      <c r="Q21" s="57"/>
+      <c r="R21" s="57"/>
     </row>
     <row r="22" spans="1:18" ht="27" customHeight="1">
       <c r="A22" s="11">
         <v>18</v>
       </c>
-      <c r="B22" s="45"/>
-      <c r="C22" s="45"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="48"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
-      <c r="P22" s="48"/>
-      <c r="Q22" s="48"/>
-      <c r="R22" s="48"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+      <c r="K22" s="57"/>
+      <c r="L22" s="57"/>
+      <c r="M22" s="57"/>
+      <c r="N22" s="57"/>
+      <c r="O22" s="57"/>
+      <c r="P22" s="57"/>
+      <c r="Q22" s="57"/>
+      <c r="R22" s="57"/>
     </row>
     <row r="23" spans="1:18" ht="27" customHeight="1">
       <c r="A23" s="12"/>
@@ -5988,6 +6044,78 @@
     <row r="29" spans="1:18" ht="27" customHeight="1"/>
   </sheetData>
   <mergeCells count="80">
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:H21"/>
+    <mergeCell ref="I21:R21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:H22"/>
+    <mergeCell ref="I22:R22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:H19"/>
+    <mergeCell ref="I19:R19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:R20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:H17"/>
+    <mergeCell ref="I17:R17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:R18"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:R15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:H16"/>
+    <mergeCell ref="I16:R16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:R13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:H14"/>
+    <mergeCell ref="I14:R14"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:H11"/>
+    <mergeCell ref="I11:R11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:H12"/>
+    <mergeCell ref="I12:R12"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:R9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:R10"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:R7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:R8"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:R5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:R6"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="D1:O2"/>
     <mergeCell ref="Q1:R1"/>
@@ -5996,78 +6124,6 @@
     <mergeCell ref="D4:E4"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:R4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:R5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:R6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:R7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:R8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:R9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:R10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:H11"/>
-    <mergeCell ref="I11:R11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:H12"/>
-    <mergeCell ref="I12:R12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:R13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:H14"/>
-    <mergeCell ref="I14:R14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:R15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:H16"/>
-    <mergeCell ref="I16:R16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:H17"/>
-    <mergeCell ref="I17:R17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:R18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:H19"/>
-    <mergeCell ref="I19:R19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:R20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:H21"/>
-    <mergeCell ref="I21:R21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:H22"/>
-    <mergeCell ref="I22:R22"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
@@ -6081,7 +6137,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AY765"/>
+  <dimension ref="A1:AY766"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:J2"/>
@@ -6099,124 +6155,128 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:51" ht="17.399999999999999" customHeight="1">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="61" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="59" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="60"/>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="60"/>
-      <c r="AH1" s="60"/>
-      <c r="AI1" s="61"/>
-      <c r="AJ1" s="69" t="s">
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="AK1" s="70"/>
-      <c r="AL1" s="71"/>
-      <c r="AM1" s="62" t="s">
+      <c r="AK1" s="73"/>
+      <c r="AL1" s="74"/>
+      <c r="AM1" s="65" t="s">
         <v>15</v>
       </c>
-      <c r="AN1" s="63"/>
-      <c r="AO1" s="63"/>
-      <c r="AP1" s="63"/>
-      <c r="AQ1" s="64"/>
+      <c r="AN1" s="66"/>
+      <c r="AO1" s="66"/>
+      <c r="AP1" s="66"/>
+      <c r="AQ1" s="67"/>
       <c r="AR1" s="2"/>
       <c r="AS1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="AT1" s="2"/>
-      <c r="AU1" s="68">
+      <c r="AU1" s="71">
         <v>44292</v>
       </c>
-      <c r="AV1" s="63"/>
-      <c r="AW1" s="63"/>
-      <c r="AX1" s="63"/>
-      <c r="AY1" s="64"/>
+      <c r="AV1" s="66"/>
+      <c r="AW1" s="66"/>
+      <c r="AX1" s="66"/>
+      <c r="AY1" s="67"/>
     </row>
     <row r="2" spans="1:51" ht="17.399999999999999" customHeight="1">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="58"/>
-      <c r="H2" s="58"/>
-      <c r="I2" s="58"/>
-      <c r="J2" s="58"/>
-      <c r="K2" s="62" t="s">
+      <c r="A2" s="61"/>
+      <c r="B2" s="61"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="65" t="s">
         <v>108</v>
       </c>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="59" t="s">
+      <c r="L2" s="66"/>
+      <c r="M2" s="66"/>
+      <c r="N2" s="66"/>
+      <c r="O2" s="66"/>
+      <c r="P2" s="66"/>
+      <c r="Q2" s="66"/>
+      <c r="R2" s="66"/>
+      <c r="S2" s="66"/>
+      <c r="T2" s="66"/>
+      <c r="U2" s="66"/>
+      <c r="V2" s="66"/>
+      <c r="W2" s="66"/>
+      <c r="X2" s="66"/>
+      <c r="Y2" s="66"/>
+      <c r="Z2" s="66"/>
+      <c r="AA2" s="66"/>
+      <c r="AB2" s="66"/>
+      <c r="AC2" s="66"/>
+      <c r="AD2" s="66"/>
+      <c r="AE2" s="66"/>
+      <c r="AF2" s="66"/>
+      <c r="AG2" s="66"/>
+      <c r="AH2" s="66"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="62" t="s">
         <v>9</v>
       </c>
-      <c r="AK2" s="60"/>
-      <c r="AL2" s="61"/>
-      <c r="AM2" s="65"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="65" t="s">
+        <v>15</v>
+      </c>
       <c r="AN2" s="66"/>
       <c r="AO2" s="66"/>
       <c r="AP2" s="66"/>
       <c r="AQ2" s="67"/>
-      <c r="AR2" s="65" t="s">
+      <c r="AR2" s="68" t="s">
         <v>2</v>
       </c>
-      <c r="AS2" s="66"/>
-      <c r="AT2" s="67"/>
-      <c r="AU2" s="65"/>
+      <c r="AS2" s="69"/>
+      <c r="AT2" s="70"/>
+      <c r="AU2" s="71">
+        <v>44473</v>
+      </c>
       <c r="AV2" s="66"/>
       <c r="AW2" s="66"/>
       <c r="AX2" s="66"/>
@@ -11871,16 +11931,16 @@
       <c r="AD119" s="22"/>
       <c r="AE119" s="22"/>
       <c r="AF119" s="23"/>
-      <c r="AG119" s="72" t="s">
+      <c r="AG119" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="AH119" s="73"/>
-      <c r="AI119" s="73"/>
-      <c r="AJ119" s="73"/>
-      <c r="AK119" s="73"/>
-      <c r="AL119" s="73"/>
-      <c r="AM119" s="73"/>
-      <c r="AN119" s="74"/>
+      <c r="AH119" s="59"/>
+      <c r="AI119" s="59"/>
+      <c r="AJ119" s="59"/>
+      <c r="AK119" s="59"/>
+      <c r="AL119" s="59"/>
+      <c r="AM119" s="59"/>
+      <c r="AN119" s="60"/>
       <c r="AO119" s="14"/>
       <c r="AP119" s="14"/>
       <c r="AQ119" s="14"/>
@@ -11934,16 +11994,16 @@
       <c r="AD120" s="22"/>
       <c r="AE120" s="22"/>
       <c r="AF120" s="23"/>
-      <c r="AG120" s="72" t="s">
+      <c r="AG120" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="AH120" s="73"/>
-      <c r="AI120" s="73"/>
-      <c r="AJ120" s="73"/>
-      <c r="AK120" s="73"/>
-      <c r="AL120" s="73"/>
-      <c r="AM120" s="73"/>
-      <c r="AN120" s="74"/>
+      <c r="AH120" s="59"/>
+      <c r="AI120" s="59"/>
+      <c r="AJ120" s="59"/>
+      <c r="AK120" s="59"/>
+      <c r="AL120" s="59"/>
+      <c r="AM120" s="59"/>
+      <c r="AN120" s="60"/>
       <c r="AO120" s="14"/>
       <c r="AP120" s="14"/>
       <c r="AQ120" s="14"/>
@@ -11997,16 +12057,16 @@
       <c r="AD121" s="22"/>
       <c r="AE121" s="22"/>
       <c r="AF121" s="23"/>
-      <c r="AG121" s="72" t="s">
+      <c r="AG121" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="AH121" s="73"/>
-      <c r="AI121" s="73"/>
-      <c r="AJ121" s="73"/>
-      <c r="AK121" s="73"/>
-      <c r="AL121" s="73"/>
-      <c r="AM121" s="73"/>
-      <c r="AN121" s="74"/>
+      <c r="AH121" s="59"/>
+      <c r="AI121" s="59"/>
+      <c r="AJ121" s="59"/>
+      <c r="AK121" s="59"/>
+      <c r="AL121" s="59"/>
+      <c r="AM121" s="59"/>
+      <c r="AN121" s="60"/>
       <c r="AO121" s="14"/>
       <c r="AP121" s="14"/>
       <c r="AQ121" s="14"/>
@@ -12060,16 +12120,16 @@
       <c r="AD122" s="22"/>
       <c r="AE122" s="22"/>
       <c r="AF122" s="23"/>
-      <c r="AG122" s="72" t="s">
+      <c r="AG122" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="AH122" s="73"/>
-      <c r="AI122" s="73"/>
-      <c r="AJ122" s="73"/>
-      <c r="AK122" s="73"/>
-      <c r="AL122" s="73"/>
-      <c r="AM122" s="73"/>
-      <c r="AN122" s="74"/>
+      <c r="AH122" s="59"/>
+      <c r="AI122" s="59"/>
+      <c r="AJ122" s="59"/>
+      <c r="AK122" s="59"/>
+      <c r="AL122" s="59"/>
+      <c r="AM122" s="59"/>
+      <c r="AN122" s="60"/>
       <c r="AO122" s="14"/>
       <c r="AP122" s="14"/>
       <c r="AQ122" s="14"/>
@@ -12123,16 +12183,16 @@
       <c r="AD123" s="22"/>
       <c r="AE123" s="22"/>
       <c r="AF123" s="23"/>
-      <c r="AG123" s="72" t="s">
+      <c r="AG123" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="AH123" s="73"/>
-      <c r="AI123" s="73"/>
-      <c r="AJ123" s="73"/>
-      <c r="AK123" s="73"/>
-      <c r="AL123" s="73"/>
-      <c r="AM123" s="73"/>
-      <c r="AN123" s="74"/>
+      <c r="AH123" s="59"/>
+      <c r="AI123" s="59"/>
+      <c r="AJ123" s="59"/>
+      <c r="AK123" s="59"/>
+      <c r="AL123" s="59"/>
+      <c r="AM123" s="59"/>
+      <c r="AN123" s="60"/>
       <c r="AO123" s="14"/>
       <c r="AP123" s="14"/>
       <c r="AQ123" s="14"/>
@@ -12186,16 +12246,16 @@
       <c r="AD124" s="22"/>
       <c r="AE124" s="22"/>
       <c r="AF124" s="23"/>
-      <c r="AG124" s="72" t="s">
+      <c r="AG124" s="58" t="s">
         <v>77</v>
       </c>
-      <c r="AH124" s="73"/>
-      <c r="AI124" s="73"/>
-      <c r="AJ124" s="73"/>
-      <c r="AK124" s="73"/>
-      <c r="AL124" s="73"/>
-      <c r="AM124" s="73"/>
-      <c r="AN124" s="74"/>
+      <c r="AH124" s="59"/>
+      <c r="AI124" s="59"/>
+      <c r="AJ124" s="59"/>
+      <c r="AK124" s="59"/>
+      <c r="AL124" s="59"/>
+      <c r="AM124" s="59"/>
+      <c r="AN124" s="60"/>
       <c r="AO124" s="14"/>
       <c r="AP124" s="14"/>
       <c r="AQ124" s="14"/>
@@ -12775,16 +12835,16 @@
       <c r="F135" s="22"/>
       <c r="G135" s="22"/>
       <c r="H135" s="23"/>
-      <c r="I135" s="72" t="s">
+      <c r="I135" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="J135" s="73"/>
-      <c r="K135" s="73"/>
-      <c r="L135" s="73"/>
-      <c r="M135" s="73"/>
-      <c r="N135" s="73"/>
-      <c r="O135" s="73"/>
-      <c r="P135" s="74"/>
+      <c r="J135" s="59"/>
+      <c r="K135" s="59"/>
+      <c r="L135" s="59"/>
+      <c r="M135" s="59"/>
+      <c r="N135" s="59"/>
+      <c r="O135" s="59"/>
+      <c r="P135" s="60"/>
       <c r="Q135" s="15"/>
       <c r="R135" s="22"/>
       <c r="S135" s="22"/>
@@ -15851,7 +15911,7 @@
     <row r="191" spans="1:51" ht="13.2" customHeight="1">
       <c r="A191" s="16"/>
       <c r="B191" s="14" t="s">
-        <v>89</v>
+        <v>161</v>
       </c>
       <c r="C191" s="14"/>
       <c r="D191" s="14"/>
@@ -15906,7 +15966,7 @@
     <row r="192" spans="1:51" ht="13.2" customHeight="1">
       <c r="A192" s="16"/>
       <c r="B192" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C192" s="14"/>
       <c r="D192" s="14"/>
@@ -15960,7 +16020,9 @@
     </row>
     <row r="193" spans="1:51" ht="13.2" customHeight="1">
       <c r="A193" s="16"/>
-      <c r="B193" s="14"/>
+      <c r="B193" s="14" t="s">
+        <v>88</v>
+      </c>
       <c r="C193" s="14"/>
       <c r="D193" s="14"/>
       <c r="E193" s="14"/>
@@ -16013,9 +16075,7 @@
     </row>
     <row r="194" spans="1:51" ht="13.2" customHeight="1">
       <c r="A194" s="16"/>
-      <c r="B194" s="14" t="s">
-        <v>126</v>
-      </c>
+      <c r="B194" s="14"/>
       <c r="C194" s="14"/>
       <c r="D194" s="14"/>
       <c r="E194" s="14"/>
@@ -16068,25 +16128,23 @@
     </row>
     <row r="195" spans="1:51" ht="13.2" customHeight="1">
       <c r="A195" s="16"/>
-      <c r="B195" s="24" t="s">
-        <v>16</v>
+      <c r="B195" s="14" t="s">
+        <v>126</v>
       </c>
-      <c r="C195" s="25"/>
-      <c r="D195" s="25"/>
-      <c r="E195" s="25"/>
-      <c r="F195" s="25"/>
-      <c r="G195" s="25"/>
-      <c r="H195" s="26"/>
-      <c r="I195" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="J195" s="25"/>
-      <c r="K195" s="25"/>
-      <c r="L195" s="25"/>
-      <c r="M195" s="25"/>
-      <c r="N195" s="25"/>
-      <c r="O195" s="25"/>
-      <c r="P195" s="26"/>
+      <c r="C195" s="14"/>
+      <c r="D195" s="14"/>
+      <c r="E195" s="14"/>
+      <c r="F195" s="14"/>
+      <c r="G195" s="14"/>
+      <c r="H195" s="14"/>
+      <c r="I195" s="14"/>
+      <c r="J195" s="14"/>
+      <c r="K195" s="14"/>
+      <c r="L195" s="14"/>
+      <c r="M195" s="14"/>
+      <c r="N195" s="14"/>
+      <c r="O195" s="14"/>
+      <c r="P195" s="14"/>
       <c r="Q195" s="14"/>
       <c r="R195" s="14"/>
       <c r="S195" s="14"/>
@@ -16125,25 +16183,25 @@
     </row>
     <row r="196" spans="1:51" ht="13.2" customHeight="1">
       <c r="A196" s="16"/>
-      <c r="B196" s="15" t="s">
-        <v>47</v>
+      <c r="B196" s="24" t="s">
+        <v>16</v>
       </c>
-      <c r="C196" s="22"/>
-      <c r="D196" s="22"/>
-      <c r="E196" s="22"/>
-      <c r="F196" s="22"/>
-      <c r="G196" s="22"/>
-      <c r="H196" s="23"/>
-      <c r="I196" s="15" t="s">
-        <v>86</v>
+      <c r="C196" s="25"/>
+      <c r="D196" s="25"/>
+      <c r="E196" s="25"/>
+      <c r="F196" s="25"/>
+      <c r="G196" s="25"/>
+      <c r="H196" s="26"/>
+      <c r="I196" s="24" t="s">
+        <v>85</v>
       </c>
-      <c r="J196" s="22"/>
-      <c r="K196" s="22"/>
-      <c r="L196" s="22"/>
-      <c r="M196" s="22"/>
-      <c r="N196" s="22"/>
-      <c r="O196" s="22"/>
-      <c r="P196" s="23"/>
+      <c r="J196" s="25"/>
+      <c r="K196" s="25"/>
+      <c r="L196" s="25"/>
+      <c r="M196" s="25"/>
+      <c r="N196" s="25"/>
+      <c r="O196" s="25"/>
+      <c r="P196" s="26"/>
       <c r="Q196" s="14"/>
       <c r="R196" s="14"/>
       <c r="S196" s="14"/>
@@ -16183,7 +16241,7 @@
     <row r="197" spans="1:51" ht="13.2" customHeight="1">
       <c r="A197" s="16"/>
       <c r="B197" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C197" s="22"/>
       <c r="D197" s="22"/>
@@ -16240,7 +16298,7 @@
     <row r="198" spans="1:51" ht="13.2" customHeight="1">
       <c r="A198" s="16"/>
       <c r="B198" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C198" s="22"/>
       <c r="D198" s="22"/>
@@ -16248,8 +16306,8 @@
       <c r="F198" s="22"/>
       <c r="G198" s="22"/>
       <c r="H198" s="23"/>
-      <c r="I198" s="15">
-        <v>0</v>
+      <c r="I198" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="J198" s="22"/>
       <c r="K198" s="22"/>
@@ -16297,7 +16355,7 @@
     <row r="199" spans="1:51" ht="13.2" customHeight="1">
       <c r="A199" s="16"/>
       <c r="B199" s="15" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C199" s="22"/>
       <c r="D199" s="22"/>
@@ -16305,8 +16363,8 @@
       <c r="F199" s="22"/>
       <c r="G199" s="22"/>
       <c r="H199" s="23"/>
-      <c r="I199" s="15" t="s">
-        <v>86</v>
+      <c r="I199" s="15">
+        <v>0</v>
       </c>
       <c r="J199" s="22"/>
       <c r="K199" s="22"/>
@@ -16354,7 +16412,7 @@
     <row r="200" spans="1:51" ht="13.2" customHeight="1">
       <c r="A200" s="16"/>
       <c r="B200" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C200" s="22"/>
       <c r="D200" s="22"/>
@@ -16362,8 +16420,8 @@
       <c r="F200" s="22"/>
       <c r="G200" s="22"/>
       <c r="H200" s="23"/>
-      <c r="I200" s="15">
-        <v>0</v>
+      <c r="I200" s="15" t="s">
+        <v>86</v>
       </c>
       <c r="J200" s="22"/>
       <c r="K200" s="22"/>
@@ -16411,7 +16469,7 @@
     <row r="201" spans="1:51" ht="13.2" customHeight="1">
       <c r="A201" s="16"/>
       <c r="B201" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C201" s="22"/>
       <c r="D201" s="22"/>
@@ -16467,21 +16525,25 @@
     </row>
     <row r="202" spans="1:51" ht="13.2" customHeight="1">
       <c r="A202" s="16"/>
-      <c r="B202" s="14"/>
-      <c r="C202" s="14"/>
-      <c r="D202" s="14"/>
-      <c r="E202" s="14"/>
-      <c r="F202" s="14"/>
-      <c r="G202" s="14"/>
-      <c r="H202" s="14"/>
-      <c r="I202" s="14"/>
-      <c r="J202" s="14"/>
-      <c r="K202" s="14"/>
-      <c r="L202" s="14"/>
-      <c r="M202" s="14"/>
-      <c r="N202" s="14"/>
-      <c r="O202" s="14"/>
-      <c r="P202" s="14"/>
+      <c r="B202" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C202" s="22"/>
+      <c r="D202" s="22"/>
+      <c r="E202" s="22"/>
+      <c r="F202" s="22"/>
+      <c r="G202" s="22"/>
+      <c r="H202" s="23"/>
+      <c r="I202" s="15">
+        <v>0</v>
+      </c>
+      <c r="J202" s="22"/>
+      <c r="K202" s="22"/>
+      <c r="L202" s="22"/>
+      <c r="M202" s="22"/>
+      <c r="N202" s="22"/>
+      <c r="O202" s="22"/>
+      <c r="P202" s="23"/>
       <c r="Q202" s="14"/>
       <c r="R202" s="14"/>
       <c r="S202" s="14"/>
@@ -16572,9 +16634,7 @@
       <c r="AY203" s="18"/>
     </row>
     <row r="204" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A204" s="32" t="s">
-        <v>127</v>
-      </c>
+      <c r="A204" s="16"/>
       <c r="B204" s="14"/>
       <c r="C204" s="14"/>
       <c r="D204" s="14"/>
@@ -16627,10 +16687,10 @@
       <c r="AY204" s="18"/>
     </row>
     <row r="205" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A205" s="16"/>
-      <c r="B205" s="14" t="s">
-        <v>83</v>
+      <c r="A205" s="32" t="s">
+        <v>127</v>
       </c>
+      <c r="B205" s="14"/>
       <c r="C205" s="14"/>
       <c r="D205" s="14"/>
       <c r="E205" s="14"/>
@@ -16683,7 +16743,9 @@
     </row>
     <row r="206" spans="1:51" ht="13.2" customHeight="1">
       <c r="A206" s="16"/>
-      <c r="B206" s="14"/>
+      <c r="B206" s="14" t="s">
+        <v>83</v>
+      </c>
       <c r="C206" s="14"/>
       <c r="D206" s="14"/>
       <c r="E206" s="14"/>
@@ -16788,9 +16850,7 @@
       <c r="AY207" s="18"/>
     </row>
     <row r="208" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A208" s="32" t="s">
-        <v>128</v>
-      </c>
+      <c r="A208" s="16"/>
       <c r="B208" s="14"/>
       <c r="C208" s="14"/>
       <c r="D208" s="14"/>
@@ -16843,10 +16903,10 @@
       <c r="AY208" s="18"/>
     </row>
     <row r="209" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A209" s="16"/>
-      <c r="B209" s="14" t="s">
-        <v>129</v>
+      <c r="A209" s="32" t="s">
+        <v>128</v>
       </c>
+      <c r="B209" s="14"/>
       <c r="C209" s="14"/>
       <c r="D209" s="14"/>
       <c r="E209" s="14"/>
@@ -16899,7 +16959,9 @@
     </row>
     <row r="210" spans="1:51" ht="13.2" customHeight="1">
       <c r="A210" s="16"/>
-      <c r="B210" s="14"/>
+      <c r="B210" s="14" t="s">
+        <v>129</v>
+      </c>
       <c r="C210" s="14"/>
       <c r="D210" s="14"/>
       <c r="E210" s="14"/>
@@ -16953,9 +17015,7 @@
     <row r="211" spans="1:51" ht="13.2" customHeight="1">
       <c r="A211" s="16"/>
       <c r="B211" s="14"/>
-      <c r="C211" s="14" t="s">
-        <v>159</v>
-      </c>
+      <c r="C211" s="14"/>
       <c r="D211" s="14"/>
       <c r="E211" s="14"/>
       <c r="F211" s="14"/>
@@ -17008,7 +17068,9 @@
     <row r="212" spans="1:51" ht="13.2" customHeight="1">
       <c r="A212" s="16"/>
       <c r="B212" s="14"/>
-      <c r="C212" s="14"/>
+      <c r="C212" s="14" t="s">
+        <v>159</v>
+      </c>
       <c r="D212" s="14"/>
       <c r="E212" s="14"/>
       <c r="F212" s="14"/>
@@ -17018,9 +17080,7 @@
       <c r="J212" s="14"/>
       <c r="K212" s="14"/>
       <c r="L212" s="14"/>
-      <c r="M212" s="14" t="s">
-        <v>160</v>
-      </c>
+      <c r="M212" s="14"/>
       <c r="N212" s="14"/>
       <c r="O212" s="14"/>
       <c r="P212" s="14"/>
@@ -17073,7 +17133,9 @@
       <c r="J213" s="14"/>
       <c r="K213" s="14"/>
       <c r="L213" s="14"/>
-      <c r="M213" s="14"/>
+      <c r="M213" s="14" t="s">
+        <v>160</v>
+      </c>
       <c r="N213" s="14"/>
       <c r="O213" s="14"/>
       <c r="P213" s="14"/>
@@ -17167,9 +17229,7 @@
       <c r="AY214" s="18"/>
     </row>
     <row r="215" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A215" s="32" t="s">
-        <v>152</v>
-      </c>
+      <c r="A215" s="16"/>
       <c r="B215" s="14"/>
       <c r="C215" s="14"/>
       <c r="D215" s="14"/>
@@ -17222,10 +17282,10 @@
       <c r="AY215" s="18"/>
     </row>
     <row r="216" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A216" s="32"/>
-      <c r="B216" s="14" t="s">
-        <v>99</v>
+      <c r="A216" s="32" t="s">
+        <v>152</v>
       </c>
+      <c r="B216" s="14"/>
       <c r="C216" s="14"/>
       <c r="D216" s="14"/>
       <c r="E216" s="14"/>
@@ -17279,7 +17339,7 @@
     <row r="217" spans="1:51" ht="13.2" customHeight="1">
       <c r="A217" s="32"/>
       <c r="B217" s="14" t="s">
-        <v>150</v>
+        <v>99</v>
       </c>
       <c r="C217" s="14"/>
       <c r="D217" s="14"/>
@@ -17334,7 +17394,7 @@
     <row r="218" spans="1:51" ht="13.2" customHeight="1">
       <c r="A218" s="32"/>
       <c r="B218" s="14" t="s">
-        <v>97</v>
+        <v>150</v>
       </c>
       <c r="C218" s="14"/>
       <c r="D218" s="14"/>
@@ -17387,9 +17447,9 @@
       <c r="AY218" s="18"/>
     </row>
     <row r="219" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A219" s="16"/>
+      <c r="A219" s="32"/>
       <c r="B219" s="14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C219" s="14"/>
       <c r="D219" s="14"/>
@@ -17443,7 +17503,9 @@
     </row>
     <row r="220" spans="1:51" ht="13.2" customHeight="1">
       <c r="A220" s="16"/>
-      <c r="B220" s="14"/>
+      <c r="B220" s="14" t="s">
+        <v>100</v>
+      </c>
       <c r="C220" s="14"/>
       <c r="D220" s="14"/>
       <c r="E220" s="14"/>
@@ -17497,9 +17559,7 @@
     <row r="221" spans="1:51" ht="13.2" customHeight="1">
       <c r="A221" s="16"/>
       <c r="B221" s="14"/>
-      <c r="C221" s="14" t="s">
-        <v>101</v>
-      </c>
+      <c r="C221" s="14"/>
       <c r="D221" s="14"/>
       <c r="E221" s="14"/>
       <c r="F221" s="14"/>
@@ -17552,10 +17612,10 @@
     <row r="222" spans="1:51" ht="13.2" customHeight="1">
       <c r="A222" s="16"/>
       <c r="B222" s="14"/>
-      <c r="C222" s="14"/>
-      <c r="D222" s="14" t="s">
-        <v>133</v>
+      <c r="C222" s="14" t="s">
+        <v>101</v>
       </c>
+      <c r="D222" s="14"/>
       <c r="E222" s="14"/>
       <c r="F222" s="14"/>
       <c r="G222" s="14"/>
@@ -17609,7 +17669,7 @@
       <c r="B223" s="14"/>
       <c r="C223" s="14"/>
       <c r="D223" s="14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E223" s="14"/>
       <c r="F223" s="14"/>
@@ -17664,7 +17724,7 @@
       <c r="B224" s="14"/>
       <c r="C224" s="14"/>
       <c r="D224" s="14" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E224" s="14"/>
       <c r="F224" s="14"/>
@@ -17719,7 +17779,7 @@
       <c r="B225" s="14"/>
       <c r="C225" s="14"/>
       <c r="D225" s="14" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="E225" s="14"/>
       <c r="F225" s="14"/>
@@ -17774,7 +17834,7 @@
       <c r="B226" s="14"/>
       <c r="C226" s="14"/>
       <c r="D226" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E226" s="14"/>
       <c r="F226" s="14"/>
@@ -17829,7 +17889,7 @@
       <c r="B227" s="14"/>
       <c r="C227" s="14"/>
       <c r="D227" s="14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E227" s="14"/>
       <c r="F227" s="14"/>
@@ -17883,7 +17943,9 @@
       <c r="A228" s="16"/>
       <c r="B228" s="14"/>
       <c r="C228" s="14"/>
-      <c r="D228" s="14"/>
+      <c r="D228" s="14" t="s">
+        <v>102</v>
+      </c>
       <c r="E228" s="14"/>
       <c r="F228" s="14"/>
       <c r="G228" s="14"/>
@@ -17934,9 +17996,7 @@
     </row>
     <row r="229" spans="1:51" ht="13.2" customHeight="1">
       <c r="A229" s="16"/>
-      <c r="B229" s="14" t="s">
-        <v>132</v>
-      </c>
+      <c r="B229" s="14"/>
       <c r="C229" s="14"/>
       <c r="D229" s="14"/>
       <c r="E229" s="14"/>
@@ -17989,7 +18049,9 @@
     </row>
     <row r="230" spans="1:51" ht="13.2" customHeight="1">
       <c r="A230" s="16"/>
-      <c r="B230" s="14"/>
+      <c r="B230" s="14" t="s">
+        <v>132</v>
+      </c>
       <c r="C230" s="14"/>
       <c r="D230" s="14"/>
       <c r="E230" s="14"/>
@@ -18094,9 +18156,7 @@
       <c r="AY231" s="18"/>
     </row>
     <row r="232" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A232" s="32" t="s">
-        <v>153</v>
-      </c>
+      <c r="A232" s="16"/>
       <c r="B232" s="14"/>
       <c r="C232" s="14"/>
       <c r="D232" s="14"/>
@@ -18149,10 +18209,10 @@
       <c r="AY232" s="18"/>
     </row>
     <row r="233" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A233" s="16"/>
-      <c r="B233" s="14" t="s">
-        <v>105</v>
+      <c r="A233" s="32" t="s">
+        <v>153</v>
       </c>
+      <c r="B233" s="14"/>
       <c r="C233" s="14"/>
       <c r="D233" s="14"/>
       <c r="E233" s="14"/>
@@ -18205,7 +18265,9 @@
     </row>
     <row r="234" spans="1:51" ht="13.2" customHeight="1">
       <c r="A234" s="16"/>
-      <c r="B234" s="14"/>
+      <c r="B234" s="14" t="s">
+        <v>105</v>
+      </c>
       <c r="C234" s="14"/>
       <c r="D234" s="14"/>
       <c r="E234" s="14"/>
@@ -18310,9 +18372,7 @@
       <c r="AY235" s="18"/>
     </row>
     <row r="236" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A236" s="32" t="s">
-        <v>154</v>
-      </c>
+      <c r="A236" s="16"/>
       <c r="B236" s="14"/>
       <c r="C236" s="14"/>
       <c r="D236" s="14"/>
@@ -18365,10 +18425,10 @@
       <c r="AY236" s="18"/>
     </row>
     <row r="237" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A237" s="31"/>
-      <c r="B237" s="14" t="s">
-        <v>35</v>
+      <c r="A237" s="32" t="s">
+        <v>154</v>
       </c>
+      <c r="B237" s="14"/>
       <c r="C237" s="14"/>
       <c r="D237" s="14"/>
       <c r="E237" s="14"/>
@@ -18421,7 +18481,9 @@
     </row>
     <row r="238" spans="1:51" ht="13.2" customHeight="1">
       <c r="A238" s="31"/>
-      <c r="B238" s="14"/>
+      <c r="B238" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="C238" s="14"/>
       <c r="D238" s="14"/>
       <c r="E238" s="14"/>
@@ -18473,10 +18535,8 @@
       <c r="AY238" s="18"/>
     </row>
     <row r="239" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A239" s="16"/>
-      <c r="B239" s="44" t="s">
-        <v>136</v>
-      </c>
+      <c r="A239" s="31"/>
+      <c r="B239" s="14"/>
       <c r="C239" s="14"/>
       <c r="D239" s="14"/>
       <c r="E239" s="14"/>
@@ -18529,10 +18589,10 @@
     </row>
     <row r="240" spans="1:51" ht="13.2" customHeight="1">
       <c r="A240" s="16"/>
-      <c r="B240" s="14"/>
-      <c r="C240" s="14" t="s">
-        <v>137</v>
+      <c r="B240" s="44" t="s">
+        <v>136</v>
       </c>
+      <c r="C240" s="14"/>
       <c r="D240" s="14"/>
       <c r="E240" s="14"/>
       <c r="F240" s="14"/>
@@ -18586,7 +18646,7 @@
       <c r="A241" s="16"/>
       <c r="B241" s="14"/>
       <c r="C241" s="14" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D241" s="14"/>
       <c r="E241" s="14"/>
@@ -18640,7 +18700,9 @@
     <row r="242" spans="1:51" ht="13.2" customHeight="1">
       <c r="A242" s="16"/>
       <c r="B242" s="14"/>
-      <c r="C242" s="14"/>
+      <c r="C242" s="14" t="s">
+        <v>138</v>
+      </c>
       <c r="D242" s="14"/>
       <c r="E242" s="14"/>
       <c r="F242" s="14"/>
@@ -18744,9 +18806,7 @@
       <c r="AY243" s="18"/>
     </row>
     <row r="244" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A244" s="32" t="s">
-        <v>155</v>
-      </c>
+      <c r="A244" s="16"/>
       <c r="B244" s="14"/>
       <c r="C244" s="14"/>
       <c r="D244" s="14"/>
@@ -18799,10 +18859,10 @@
       <c r="AY244" s="18"/>
     </row>
     <row r="245" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A245" s="16"/>
-      <c r="B245" s="14" t="s">
-        <v>139</v>
+      <c r="A245" s="32" t="s">
+        <v>155</v>
       </c>
+      <c r="B245" s="14"/>
       <c r="C245" s="14"/>
       <c r="D245" s="14"/>
       <c r="E245" s="14"/>
@@ -18856,7 +18916,7 @@
     <row r="246" spans="1:51" ht="13.2" customHeight="1">
       <c r="A246" s="16"/>
       <c r="B246" s="14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C246" s="14"/>
       <c r="D246" s="14"/>
@@ -18910,7 +18970,9 @@
     </row>
     <row r="247" spans="1:51" ht="13.2" customHeight="1">
       <c r="A247" s="16"/>
-      <c r="B247" s="14"/>
+      <c r="B247" s="14" t="s">
+        <v>140</v>
+      </c>
       <c r="C247" s="14"/>
       <c r="D247" s="14"/>
       <c r="E247" s="14"/>
@@ -18964,9 +19026,7 @@
     <row r="248" spans="1:51" ht="13.2" customHeight="1">
       <c r="A248" s="16"/>
       <c r="B248" s="14"/>
-      <c r="C248" s="14" t="s">
-        <v>141</v>
-      </c>
+      <c r="C248" s="14"/>
       <c r="D248" s="14"/>
       <c r="E248" s="14"/>
       <c r="F248" s="14"/>
@@ -19019,7 +19079,9 @@
     <row r="249" spans="1:51" ht="13.2" customHeight="1">
       <c r="A249" s="16"/>
       <c r="B249" s="14"/>
-      <c r="C249" s="14"/>
+      <c r="C249" s="14" t="s">
+        <v>141</v>
+      </c>
       <c r="D249" s="14"/>
       <c r="E249" s="14"/>
       <c r="F249" s="14"/>
@@ -19123,9 +19185,7 @@
       <c r="AY250" s="18"/>
     </row>
     <row r="251" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A251" s="32" t="s">
-        <v>156</v>
-      </c>
+      <c r="A251" s="16"/>
       <c r="B251" s="14"/>
       <c r="C251" s="14"/>
       <c r="D251" s="14"/>
@@ -19178,10 +19238,10 @@
       <c r="AY251" s="18"/>
     </row>
     <row r="252" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A252" s="31"/>
-      <c r="B252" s="14" t="s">
-        <v>35</v>
+      <c r="A252" s="32" t="s">
+        <v>156</v>
       </c>
+      <c r="B252" s="14"/>
       <c r="C252" s="14"/>
       <c r="D252" s="14"/>
       <c r="E252" s="14"/>
@@ -19234,7 +19294,9 @@
     </row>
     <row r="253" spans="1:51" ht="13.2" customHeight="1">
       <c r="A253" s="31"/>
-      <c r="B253" s="14"/>
+      <c r="B253" s="14" t="s">
+        <v>35</v>
+      </c>
       <c r="C253" s="14"/>
       <c r="D253" s="14"/>
       <c r="E253" s="14"/>
@@ -19286,10 +19348,8 @@
       <c r="AY253" s="18"/>
     </row>
     <row r="254" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A254" s="16"/>
-      <c r="B254" s="44" t="s">
-        <v>142</v>
-      </c>
+      <c r="A254" s="31"/>
+      <c r="B254" s="14"/>
       <c r="C254" s="14"/>
       <c r="D254" s="14"/>
       <c r="E254" s="14"/>
@@ -19342,10 +19402,10 @@
     </row>
     <row r="255" spans="1:51" ht="13.2" customHeight="1">
       <c r="A255" s="16"/>
-      <c r="B255" s="14"/>
-      <c r="C255" s="14" t="s">
-        <v>143</v>
+      <c r="B255" s="44" t="s">
+        <v>142</v>
       </c>
+      <c r="C255" s="14"/>
       <c r="D255" s="14"/>
       <c r="E255" s="14"/>
       <c r="F255" s="14"/>
@@ -19399,7 +19459,7 @@
       <c r="A256" s="16"/>
       <c r="B256" s="14"/>
       <c r="C256" s="14" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D256" s="14"/>
       <c r="E256" s="14"/>
@@ -19453,7 +19513,9 @@
     <row r="257" spans="1:51" ht="13.2" customHeight="1">
       <c r="A257" s="16"/>
       <c r="B257" s="14"/>
-      <c r="C257" s="14"/>
+      <c r="C257" s="14" t="s">
+        <v>144</v>
+      </c>
       <c r="D257" s="14"/>
       <c r="E257" s="14"/>
       <c r="F257" s="14"/>
@@ -19557,9 +19619,7 @@
       <c r="AY258" s="18"/>
     </row>
     <row r="259" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A259" s="32" t="s">
-        <v>157</v>
-      </c>
+      <c r="A259" s="16"/>
       <c r="B259" s="14"/>
       <c r="C259" s="14"/>
       <c r="D259" s="14"/>
@@ -19612,10 +19672,10 @@
       <c r="AY259" s="18"/>
     </row>
     <row r="260" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A260" s="16"/>
-      <c r="B260" s="14" t="s">
-        <v>147</v>
+      <c r="A260" s="32" t="s">
+        <v>157</v>
       </c>
+      <c r="B260" s="14"/>
       <c r="C260" s="14"/>
       <c r="D260" s="14"/>
       <c r="E260" s="14"/>
@@ -19668,7 +19728,9 @@
     </row>
     <row r="261" spans="1:51" ht="13.2" customHeight="1">
       <c r="A261" s="16"/>
-      <c r="B261" s="14"/>
+      <c r="B261" s="14" t="s">
+        <v>147</v>
+      </c>
       <c r="C261" s="14"/>
       <c r="D261" s="14"/>
       <c r="E261" s="14"/>
@@ -19722,9 +19784,7 @@
     <row r="262" spans="1:51" ht="13.2" customHeight="1">
       <c r="A262" s="16"/>
       <c r="B262" s="14"/>
-      <c r="C262" s="14" t="s">
-        <v>106</v>
-      </c>
+      <c r="C262" s="14"/>
       <c r="D262" s="14"/>
       <c r="E262" s="14"/>
       <c r="F262" s="14"/>
@@ -19777,7 +19837,9 @@
     <row r="263" spans="1:51" ht="13.2" customHeight="1">
       <c r="A263" s="16"/>
       <c r="B263" s="14"/>
-      <c r="C263" s="14"/>
+      <c r="C263" s="14" t="s">
+        <v>106</v>
+      </c>
       <c r="D263" s="14"/>
       <c r="E263" s="14"/>
       <c r="F263" s="14"/>
@@ -19829,9 +19891,7 @@
     </row>
     <row r="264" spans="1:51" ht="13.2" customHeight="1">
       <c r="A264" s="16"/>
-      <c r="B264" s="14" t="s">
-        <v>148</v>
-      </c>
+      <c r="B264" s="14"/>
       <c r="C264" s="14"/>
       <c r="D264" s="14"/>
       <c r="E264" s="14"/>
@@ -19884,7 +19944,9 @@
     </row>
     <row r="265" spans="1:51" ht="13.2" customHeight="1">
       <c r="A265" s="16"/>
-      <c r="B265" s="14"/>
+      <c r="B265" s="14" t="s">
+        <v>148</v>
+      </c>
       <c r="C265" s="14"/>
       <c r="D265" s="14"/>
       <c r="E265" s="14"/>
@@ -19938,9 +20000,7 @@
     <row r="266" spans="1:51" ht="13.2" customHeight="1">
       <c r="A266" s="16"/>
       <c r="B266" s="14"/>
-      <c r="C266" s="14" t="s">
-        <v>107</v>
-      </c>
+      <c r="C266" s="14"/>
       <c r="D266" s="14"/>
       <c r="E266" s="14"/>
       <c r="F266" s="14"/>
@@ -19993,7 +20053,9 @@
     <row r="267" spans="1:51" ht="13.2" customHeight="1">
       <c r="A267" s="16"/>
       <c r="B267" s="14"/>
-      <c r="C267" s="14"/>
+      <c r="C267" s="14" t="s">
+        <v>107</v>
+      </c>
       <c r="D267" s="14"/>
       <c r="E267" s="14"/>
       <c r="F267" s="14"/>
@@ -20045,9 +20107,7 @@
     </row>
     <row r="268" spans="1:51" ht="13.2" customHeight="1">
       <c r="A268" s="16"/>
-      <c r="B268" s="14" t="s">
-        <v>139</v>
-      </c>
+      <c r="B268" s="14"/>
       <c r="C268" s="14"/>
       <c r="D268" s="14"/>
       <c r="E268" s="14"/>
@@ -20100,7 +20160,9 @@
     </row>
     <row r="269" spans="1:51" ht="13.2" customHeight="1">
       <c r="A269" s="16"/>
-      <c r="B269" s="14"/>
+      <c r="B269" s="14" t="s">
+        <v>139</v>
+      </c>
       <c r="C269" s="14"/>
       <c r="D269" s="14"/>
       <c r="E269" s="14"/>
@@ -20154,9 +20216,7 @@
     <row r="270" spans="1:51" ht="13.2" customHeight="1">
       <c r="A270" s="16"/>
       <c r="B270" s="14"/>
-      <c r="C270" s="14" t="s">
-        <v>146</v>
-      </c>
+      <c r="C270" s="14"/>
       <c r="D270" s="14"/>
       <c r="E270" s="14"/>
       <c r="F270" s="14"/>
@@ -20209,7 +20269,9 @@
     <row r="271" spans="1:51" ht="13.2" customHeight="1">
       <c r="A271" s="16"/>
       <c r="B271" s="14"/>
-      <c r="C271" s="14"/>
+      <c r="C271" s="14" t="s">
+        <v>146</v>
+      </c>
       <c r="D271" s="14"/>
       <c r="E271" s="14"/>
       <c r="F271" s="14"/>
@@ -20261,9 +20323,7 @@
     </row>
     <row r="272" spans="1:51" ht="13.2" customHeight="1">
       <c r="A272" s="16"/>
-      <c r="B272" s="14" t="s">
-        <v>145</v>
-      </c>
+      <c r="B272" s="14"/>
       <c r="C272" s="14"/>
       <c r="D272" s="14"/>
       <c r="E272" s="14"/>
@@ -20316,7 +20376,9 @@
     </row>
     <row r="273" spans="1:51" ht="13.2" customHeight="1">
       <c r="A273" s="16"/>
-      <c r="B273" s="14"/>
+      <c r="B273" s="14" t="s">
+        <v>145</v>
+      </c>
       <c r="C273" s="14"/>
       <c r="D273" s="14"/>
       <c r="E273" s="14"/>
@@ -20421,9 +20483,7 @@
       <c r="AY274" s="18"/>
     </row>
     <row r="275" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A275" s="32" t="s">
-        <v>158</v>
-      </c>
+      <c r="A275" s="16"/>
       <c r="B275" s="14"/>
       <c r="C275" s="14"/>
       <c r="D275" s="14"/>
@@ -20476,10 +20536,10 @@
       <c r="AY275" s="18"/>
     </row>
     <row r="276" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A276" s="16"/>
-      <c r="B276" s="14" t="s">
-        <v>38</v>
+      <c r="A276" s="32" t="s">
+        <v>158</v>
       </c>
+      <c r="B276" s="14"/>
       <c r="C276" s="14"/>
       <c r="D276" s="14"/>
       <c r="E276" s="14"/>
@@ -20532,7 +20592,9 @@
     </row>
     <row r="277" spans="1:51" ht="13.2" customHeight="1">
       <c r="A277" s="16"/>
-      <c r="B277" s="14"/>
+      <c r="B277" s="14" t="s">
+        <v>38</v>
+      </c>
       <c r="C277" s="14"/>
       <c r="D277" s="14"/>
       <c r="E277" s="14"/>
@@ -20584,110 +20646,110 @@
       <c r="AY277" s="18"/>
     </row>
     <row r="278" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A278" s="19"/>
-      <c r="B278" s="20"/>
-      <c r="C278" s="20"/>
-      <c r="D278" s="20"/>
-      <c r="E278" s="20"/>
-      <c r="F278" s="20"/>
-      <c r="G278" s="20"/>
-      <c r="H278" s="20"/>
-      <c r="I278" s="20"/>
-      <c r="J278" s="20"/>
-      <c r="K278" s="20"/>
-      <c r="L278" s="20"/>
-      <c r="M278" s="20"/>
-      <c r="N278" s="20"/>
-      <c r="O278" s="20"/>
-      <c r="P278" s="20"/>
-      <c r="Q278" s="20"/>
-      <c r="R278" s="20"/>
-      <c r="S278" s="20"/>
-      <c r="T278" s="20"/>
-      <c r="U278" s="20"/>
-      <c r="V278" s="20"/>
-      <c r="W278" s="20"/>
-      <c r="X278" s="20"/>
-      <c r="Y278" s="20"/>
-      <c r="Z278" s="20"/>
-      <c r="AA278" s="20"/>
-      <c r="AB278" s="20"/>
-      <c r="AC278" s="20"/>
-      <c r="AD278" s="20"/>
-      <c r="AE278" s="20"/>
-      <c r="AF278" s="20"/>
-      <c r="AG278" s="20"/>
-      <c r="AH278" s="20"/>
-      <c r="AI278" s="20"/>
-      <c r="AJ278" s="20"/>
-      <c r="AK278" s="20"/>
-      <c r="AL278" s="20"/>
-      <c r="AM278" s="20"/>
-      <c r="AN278" s="20"/>
-      <c r="AO278" s="20"/>
-      <c r="AP278" s="20"/>
-      <c r="AQ278" s="20"/>
-      <c r="AR278" s="20"/>
-      <c r="AS278" s="20"/>
-      <c r="AT278" s="20"/>
-      <c r="AU278" s="20"/>
-      <c r="AV278" s="20"/>
-      <c r="AW278" s="20"/>
-      <c r="AX278" s="20"/>
-      <c r="AY278" s="21"/>
+      <c r="A278" s="16"/>
+      <c r="B278" s="14"/>
+      <c r="C278" s="14"/>
+      <c r="D278" s="14"/>
+      <c r="E278" s="14"/>
+      <c r="F278" s="14"/>
+      <c r="G278" s="14"/>
+      <c r="H278" s="14"/>
+      <c r="I278" s="14"/>
+      <c r="J278" s="14"/>
+      <c r="K278" s="14"/>
+      <c r="L278" s="14"/>
+      <c r="M278" s="14"/>
+      <c r="N278" s="14"/>
+      <c r="O278" s="14"/>
+      <c r="P278" s="14"/>
+      <c r="Q278" s="14"/>
+      <c r="R278" s="14"/>
+      <c r="S278" s="14"/>
+      <c r="T278" s="14"/>
+      <c r="U278" s="14"/>
+      <c r="V278" s="14"/>
+      <c r="W278" s="14"/>
+      <c r="X278" s="14"/>
+      <c r="Y278" s="14"/>
+      <c r="Z278" s="14"/>
+      <c r="AA278" s="14"/>
+      <c r="AB278" s="14"/>
+      <c r="AC278" s="14"/>
+      <c r="AD278" s="14"/>
+      <c r="AE278" s="14"/>
+      <c r="AF278" s="14"/>
+      <c r="AG278" s="14"/>
+      <c r="AH278" s="14"/>
+      <c r="AI278" s="14"/>
+      <c r="AJ278" s="14"/>
+      <c r="AK278" s="14"/>
+      <c r="AL278" s="14"/>
+      <c r="AM278" s="14"/>
+      <c r="AN278" s="14"/>
+      <c r="AO278" s="14"/>
+      <c r="AP278" s="14"/>
+      <c r="AQ278" s="14"/>
+      <c r="AR278" s="14"/>
+      <c r="AS278" s="14"/>
+      <c r="AT278" s="14"/>
+      <c r="AU278" s="14"/>
+      <c r="AV278" s="14"/>
+      <c r="AW278" s="14"/>
+      <c r="AX278" s="14"/>
+      <c r="AY278" s="18"/>
     </row>
     <row r="279" spans="1:51" ht="13.2" customHeight="1">
-      <c r="A279" s="14"/>
-      <c r="B279" s="14"/>
-      <c r="C279" s="14"/>
-      <c r="D279" s="14"/>
-      <c r="E279" s="14"/>
-      <c r="F279" s="14"/>
-      <c r="G279" s="14"/>
-      <c r="H279" s="14"/>
-      <c r="I279" s="14"/>
-      <c r="J279" s="14"/>
-      <c r="K279" s="14"/>
-      <c r="L279" s="14"/>
-      <c r="M279" s="14"/>
-      <c r="N279" s="14"/>
-      <c r="O279" s="14"/>
-      <c r="P279" s="14"/>
-      <c r="Q279" s="14"/>
-      <c r="R279" s="14"/>
-      <c r="S279" s="14"/>
-      <c r="T279" s="14"/>
-      <c r="U279" s="14"/>
-      <c r="V279" s="14"/>
-      <c r="W279" s="14"/>
-      <c r="X279" s="14"/>
-      <c r="Y279" s="14"/>
-      <c r="Z279" s="14"/>
-      <c r="AA279" s="14"/>
-      <c r="AB279" s="14"/>
-      <c r="AC279" s="14"/>
-      <c r="AD279" s="14"/>
-      <c r="AE279" s="14"/>
-      <c r="AF279" s="14"/>
-      <c r="AG279" s="14"/>
-      <c r="AH279" s="14"/>
-      <c r="AI279" s="14"/>
-      <c r="AJ279" s="14"/>
-      <c r="AK279" s="14"/>
-      <c r="AL279" s="14"/>
-      <c r="AM279" s="14"/>
-      <c r="AN279" s="14"/>
-      <c r="AO279" s="14"/>
-      <c r="AP279" s="14"/>
-      <c r="AQ279" s="14"/>
-      <c r="AR279" s="14"/>
-      <c r="AS279" s="14"/>
-      <c r="AT279" s="14"/>
-      <c r="AU279" s="14"/>
-      <c r="AV279" s="14"/>
-      <c r="AW279" s="14"/>
-      <c r="AX279" s="14"/>
-      <c r="AY279" s="14"/>
+      <c r="A279" s="19"/>
+      <c r="B279" s="20"/>
+      <c r="C279" s="20"/>
+      <c r="D279" s="20"/>
+      <c r="E279" s="20"/>
+      <c r="F279" s="20"/>
+      <c r="G279" s="20"/>
+      <c r="H279" s="20"/>
+      <c r="I279" s="20"/>
+      <c r="J279" s="20"/>
+      <c r="K279" s="20"/>
+      <c r="L279" s="20"/>
+      <c r="M279" s="20"/>
+      <c r="N279" s="20"/>
+      <c r="O279" s="20"/>
+      <c r="P279" s="20"/>
+      <c r="Q279" s="20"/>
+      <c r="R279" s="20"/>
+      <c r="S279" s="20"/>
+      <c r="T279" s="20"/>
+      <c r="U279" s="20"/>
+      <c r="V279" s="20"/>
+      <c r="W279" s="20"/>
+      <c r="X279" s="20"/>
+      <c r="Y279" s="20"/>
+      <c r="Z279" s="20"/>
+      <c r="AA279" s="20"/>
+      <c r="AB279" s="20"/>
+      <c r="AC279" s="20"/>
+      <c r="AD279" s="20"/>
+      <c r="AE279" s="20"/>
+      <c r="AF279" s="20"/>
+      <c r="AG279" s="20"/>
+      <c r="AH279" s="20"/>
+      <c r="AI279" s="20"/>
+      <c r="AJ279" s="20"/>
+      <c r="AK279" s="20"/>
+      <c r="AL279" s="20"/>
+      <c r="AM279" s="20"/>
+      <c r="AN279" s="20"/>
+      <c r="AO279" s="20"/>
+      <c r="AP279" s="20"/>
+      <c r="AQ279" s="20"/>
+      <c r="AR279" s="20"/>
+      <c r="AS279" s="20"/>
+      <c r="AT279" s="20"/>
+      <c r="AU279" s="20"/>
+      <c r="AV279" s="20"/>
+      <c r="AW279" s="20"/>
+      <c r="AX279" s="20"/>
+      <c r="AY279" s="21"/>
     </row>
     <row r="280" spans="1:51" ht="13.2" customHeight="1">
       <c r="A280" s="14"/>
@@ -43852,6 +43914,7 @@
     </row>
     <row r="717" spans="1:51" ht="13.2" customHeight="1">
       <c r="A717" s="14"/>
+      <c r="B717" s="14"/>
       <c r="C717" s="14"/>
       <c r="D717" s="14"/>
       <c r="E717" s="14"/>
@@ -43903,6 +43966,7 @@
       <c r="AY717" s="14"/>
     </row>
     <row r="718" spans="1:51" ht="13.2" customHeight="1">
+      <c r="A718" s="14"/>
       <c r="C718" s="14"/>
       <c r="D718" s="14"/>
       <c r="E718" s="14"/>
@@ -43930,6 +43994,26 @@
       <c r="AA718" s="14"/>
       <c r="AB718" s="14"/>
       <c r="AC718" s="14"/>
+      <c r="AD718" s="14"/>
+      <c r="AE718" s="14"/>
+      <c r="AF718" s="14"/>
+      <c r="AG718" s="14"/>
+      <c r="AH718" s="14"/>
+      <c r="AI718" s="14"/>
+      <c r="AJ718" s="14"/>
+      <c r="AK718" s="14"/>
+      <c r="AL718" s="14"/>
+      <c r="AM718" s="14"/>
+      <c r="AN718" s="14"/>
+      <c r="AO718" s="14"/>
+      <c r="AP718" s="14"/>
+      <c r="AQ718" s="14"/>
+      <c r="AR718" s="14"/>
+      <c r="AS718" s="14"/>
+      <c r="AT718" s="14"/>
+      <c r="AU718" s="14"/>
+      <c r="AV718" s="14"/>
+      <c r="AW718" s="14"/>
       <c r="AX718" s="14"/>
       <c r="AY718" s="14"/>
     </row>
@@ -43961,6 +44045,8 @@
       <c r="AA719" s="14"/>
       <c r="AB719" s="14"/>
       <c r="AC719" s="14"/>
+      <c r="AX719" s="14"/>
+      <c r="AY719" s="14"/>
     </row>
     <row r="720" spans="1:51" ht="13.2" customHeight="1">
       <c r="C720" s="14"/>
@@ -44221,6 +44307,7 @@
       <c r="Z728" s="14"/>
       <c r="AA728" s="14"/>
       <c r="AB728" s="14"/>
+      <c r="AC728" s="14"/>
     </row>
     <row r="729" spans="3:29" ht="13.2" customHeight="1">
       <c r="C729" s="14"/>
@@ -44499,6 +44586,8 @@
       <c r="X738" s="14"/>
       <c r="Y738" s="14"/>
       <c r="Z738" s="14"/>
+      <c r="AA738" s="14"/>
+      <c r="AB738" s="14"/>
     </row>
     <row r="739" spans="3:28" ht="13.2" customHeight="1">
       <c r="C739" s="14"/>
@@ -45202,15 +45291,34 @@
       <c r="Y765" s="14"/>
       <c r="Z765" s="14"/>
     </row>
+    <row r="766" spans="3:26" ht="13.2" customHeight="1">
+      <c r="C766" s="14"/>
+      <c r="D766" s="14"/>
+      <c r="E766" s="14"/>
+      <c r="F766" s="14"/>
+      <c r="G766" s="14"/>
+      <c r="H766" s="14"/>
+      <c r="I766" s="14"/>
+      <c r="J766" s="14"/>
+      <c r="K766" s="14"/>
+      <c r="L766" s="14"/>
+      <c r="M766" s="14"/>
+      <c r="N766" s="14"/>
+      <c r="O766" s="14"/>
+      <c r="P766" s="14"/>
+      <c r="Q766" s="14"/>
+      <c r="R766" s="14"/>
+      <c r="S766" s="14"/>
+      <c r="T766" s="14"/>
+      <c r="U766" s="14"/>
+      <c r="V766" s="14"/>
+      <c r="W766" s="14"/>
+      <c r="X766" s="14"/>
+      <c r="Y766" s="14"/>
+      <c r="Z766" s="14"/>
+    </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG124:AN124"/>
-    <mergeCell ref="I135:P135"/>
-    <mergeCell ref="AG119:AN119"/>
-    <mergeCell ref="AG120:AN120"/>
-    <mergeCell ref="AG121:AN121"/>
-    <mergeCell ref="AG122:AN122"/>
-    <mergeCell ref="AG123:AN123"/>
     <mergeCell ref="A1:J2"/>
     <mergeCell ref="K1:AI1"/>
     <mergeCell ref="K2:AI2"/>
@@ -45221,6 +45329,13 @@
     <mergeCell ref="AU2:AY2"/>
     <mergeCell ref="AM1:AQ1"/>
     <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="AG124:AN124"/>
+    <mergeCell ref="I135:P135"/>
+    <mergeCell ref="AG119:AN119"/>
+    <mergeCell ref="AG120:AN120"/>
+    <mergeCell ref="AG121:AN121"/>
+    <mergeCell ref="AG122:AN122"/>
+    <mergeCell ref="AG123:AN123"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
